--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:52:14+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,10 +277,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -19,12 +19,24 @@
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
     <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
+    <sheet name="Include from FSIII 21" r:id="rId24" sheetId="22"/>
+    <sheet name="Include from FSIII 22" r:id="rId25" sheetId="23"/>
+    <sheet name="Include from FSIII 23" r:id="rId26" sheetId="24"/>
+    <sheet name="Include from FSIII 24" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +53,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +95,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -113,16 +125,52 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
     <t>I1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>I2</t>
@@ -632,6 +680,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -687,6 +1065,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -19,24 +19,12 @@
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
     <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
-    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
-    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
-    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
-    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
-    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
-    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
-    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
-    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
-    <sheet name="Include from FSIII 21" r:id="rId24" sheetId="22"/>
-    <sheet name="Include from FSIII 22" r:id="rId25" sheetId="23"/>
-    <sheet name="Include from FSIII 23" r:id="rId26" sheetId="24"/>
-    <sheet name="Include from FSIII 24" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -53,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -83,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -95,7 +83,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -125,7 +113,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+    <t>I1</t>
   </si>
   <si>
     <t/>
@@ -135,42 +123,6 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.21</t>
-  </si>
-  <si>
-    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
-  </si>
-  <si>
-    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
-  </si>
-  <si>
-    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
-  </si>
-  <si>
-    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
-  </si>
-  <si>
-    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
-  </si>
-  <si>
-    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
-  </si>
-  <si>
-    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
-  </si>
-  <si>
-    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
-  </si>
-  <si>
-    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
-  </si>
-  <si>
-    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
-  </si>
-  <si>
-    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
-  </si>
-  <si>
-    <t>I1</t>
   </si>
   <si>
     <t>I2</t>
@@ -680,336 +632,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -1065,336 +687,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -19,12 +19,24 @@
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
     <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
+    <sheet name="Include from FSIII 21" r:id="rId24" sheetId="22"/>
+    <sheet name="Include from FSIII 22" r:id="rId25" sheetId="23"/>
+    <sheet name="Include from FSIII 23" r:id="rId26" sheetId="24"/>
+    <sheet name="Include from FSIII 24" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +53,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +95,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -113,16 +125,52 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
     <t>I1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>I2</t>
@@ -632,6 +680,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -687,6 +1065,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -19,24 +19,12 @@
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
     <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
-    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
-    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
-    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
-    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
-    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
-    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
-    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
-    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
-    <sheet name="Include from FSIII 21" r:id="rId24" sheetId="22"/>
-    <sheet name="Include from FSIII 22" r:id="rId25" sheetId="23"/>
-    <sheet name="Include from FSIII 23" r:id="rId26" sheetId="24"/>
-    <sheet name="Include from FSIII 24" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -53,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -83,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -95,7 +83,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -125,7 +113,7 @@
     <t>descendent-of</t>
   </si>
   <si>
-    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+    <t>I1</t>
   </si>
   <si>
     <t/>
@@ -135,42 +123,6 @@
   </si>
   <si>
     <t>urn:oid:1.2.208.176.2.21</t>
-  </si>
-  <si>
-    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
-  </si>
-  <si>
-    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
-  </si>
-  <si>
-    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
-  </si>
-  <si>
-    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
-  </si>
-  <si>
-    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
-  </si>
-  <si>
-    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
-  </si>
-  <si>
-    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
-  </si>
-  <si>
-    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
-  </si>
-  <si>
-    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
-  </si>
-  <si>
-    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
-  </si>
-  <si>
-    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
-  </si>
-  <si>
-    <t>I1</t>
   </si>
   <si>
     <t>I2</t>
@@ -680,336 +632,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -1065,336 +687,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -19,12 +19,24 @@
     <sheet name="Include from FSIII 10" r:id="rId13" sheetId="11"/>
     <sheet name="Include from FSIII 11" r:id="rId14" sheetId="12"/>
     <sheet name="Include from FSIII 12" r:id="rId15" sheetId="13"/>
+    <sheet name="Include from FSIII 13" r:id="rId16" sheetId="14"/>
+    <sheet name="Include from FSIII 14" r:id="rId17" sheetId="15"/>
+    <sheet name="Include from FSIII 15" r:id="rId18" sheetId="16"/>
+    <sheet name="Include from FSIII 16" r:id="rId19" sheetId="17"/>
+    <sheet name="Include from FSIII 17" r:id="rId20" sheetId="18"/>
+    <sheet name="Include from FSIII 18" r:id="rId21" sheetId="19"/>
+    <sheet name="Include from FSIII 19" r:id="rId22" sheetId="20"/>
+    <sheet name="Include from FSIII 20" r:id="rId23" sheetId="21"/>
+    <sheet name="Include from FSIII 21" r:id="rId24" sheetId="22"/>
+    <sheet name="Include from FSIII 22" r:id="rId25" sheetId="23"/>
+    <sheet name="Include from FSIII 23" r:id="rId26" sheetId="24"/>
+    <sheet name="Include from FSIII 24" r:id="rId27" sheetId="25"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +53,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +95,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -113,16 +125,52 @@
     <t>descendent-of</t>
   </si>
   <si>
+    <t>fa6aa904-d06e-4029-b4c4-13ead04ace27</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
+  </si>
+  <si>
+    <t>55670b1e-7a36-46b2-8712-b7536237f22d</t>
+  </si>
+  <si>
+    <t>25dcedb3-7149-4ef9-a2c3-be30267441fb</t>
+  </si>
+  <si>
+    <t>1bb534f3-e526-41a9-b9c3-6157ea19c915</t>
+  </si>
+  <si>
+    <t>3f00a76f-8e7b-4b13-80cc-f2ceef4e51d1</t>
+  </si>
+  <si>
+    <t>5bfe4bda-2358-41da-946e-1fdaa33d5fe8</t>
+  </si>
+  <si>
+    <t>01150cdb-6098-48ce-bb61-60967f6bcc37</t>
+  </si>
+  <si>
+    <t>cc377732-7f14-49b7-8940-1aa07b8884e7</t>
+  </si>
+  <si>
+    <t>94e9c867-fbc8-4d35-8596-e6b8765b12e8</t>
+  </si>
+  <si>
+    <t>8c539fd9-7f31-4b4e-8b30-8298c8ab640f</t>
+  </si>
+  <si>
+    <t>9162d29a-1c7f-4585-8145-8fb4f1a999e3</t>
+  </si>
+  <si>
+    <t>045fa500-35b0-46b7-97dd-adb60888a8ea</t>
+  </si>
+  <si>
     <t>I1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
   <si>
     <t>I2</t>
@@ -632,6 +680,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
@@ -687,6 +1065,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>

--- a/term/ValueSet-KLConditionCodesNursing.xlsx
+++ b/term/ValueSet-KLConditionCodesNursing.xlsx
@@ -53,7 +53,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -83,7 +83,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
